--- a/biology/Zoologie/Hypolaïs_pâle/Hypolaïs_pâle.xlsx
+++ b/biology/Zoologie/Hypolaïs_pâle/Hypolaïs_pâle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_p%C3%A2le</t>
+          <t>Hypolaïs_pâle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iduna pallida
 L'Hypolaïs pâle (Iduna pallida) est une espèce de passereaux de la famille des Acrocephalidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_p%C3%A2le</t>
+          <t>Hypolaïs_pâle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_p%C3%A2le</t>
+          <t>Hypolaïs_pâle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,7 +554,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reproduction
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Œufs d'Iduna pallida elaeica Muséum de Toulouse
 			Œufs d'Iduna pallida reiseri Muséum de Toulouse
 </t>
@@ -553,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_p%C3%A2le</t>
+          <t>Hypolaïs_pâle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_p%C3%A2le</t>
+          <t>Hypolaïs_pâle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,14 +619,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par les naturalistes allemands Friedrich Wilhelm Hemprich et Christian Gottfried Ehrenberg en 1833 [1].
-Synonymes
-Curruca pallida Hemprich &amp; Ehrenberg, 1833 (protonyme)
-Hippolais pallida
-Sous-espèces
-D'après le Congrès ornithologique international, cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par les naturalistes allemands Friedrich Wilhelm Hemprich et Christian Gottfried Ehrenberg en 1833 .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypolaïs_pâle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypola%C3%AFs_p%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Curruca pallida Hemprich &amp; Ehrenberg, 1833 (protonyme)
+Hippolais pallida</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypolaïs_pâle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypola%C3%AFs_p%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le Congrès ornithologique international, cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
 Iduna pallida elaeica (Lindermayer, 1843 ; synonyme : Salicaria elaeica Protonyme) ;
 Iduna pallida reiseri (Hilgert, 1908) ;
 Iduna pallida pallida (Hemprich &amp; Ehrenberg, 1833) ;
